--- a/backend/income/management/documents/2409/t_Aylik_Mkt_Gelir_2409.xlsx
+++ b/backend/income/management/documents/2409/t_Aylik_Mkt_Gelir_2409.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahir\OneDrive\Desktop\Codes\YKHT\backend\income\management\documents\2409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726B1641-74E1-4A05-B7F1-73EAE8B72F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D754C45-85EB-4DB9-A0C9-FCDB1D7693E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,14 +1014,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:BU579"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BR15" sqref="BR15"/>
+      <selection pane="bottomRight" activeCell="J588" sqref="J588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -1241,7 +1241,7 @@
         <v>47088</v>
       </c>
     </row>
-    <row r="2" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>81</v>
       </c>
@@ -1343,7 +1343,7 @@
       <c r="BS2" s="22"/>
       <c r="BU2" s="24"/>
     </row>
-    <row r="3" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>81</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="BS3" s="22"/>
       <c r="BU3" s="24"/>
     </row>
-    <row r="4" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>81</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="BS4" s="22"/>
       <c r="BU4" s="24"/>
     </row>
-    <row r="5" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>81</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="BS5" s="22"/>
       <c r="BU5" s="24"/>
     </row>
-    <row r="6" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>81</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="BS6" s="22"/>
       <c r="BU6" s="24"/>
     </row>
-    <row r="7" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="BS7" s="22"/>
       <c r="BU7" s="24"/>
     </row>
-    <row r="8" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>81</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="BS8" s="22"/>
       <c r="BU8" s="24"/>
     </row>
-    <row r="9" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>81</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="BS9" s="22"/>
       <c r="BU9" s="24"/>
     </row>
-    <row r="10" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>81</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="BS10" s="22"/>
       <c r="BU10" s="24"/>
     </row>
-    <row r="11" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>81</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="BS11" s="22"/>
       <c r="BU11" s="24"/>
     </row>
-    <row r="12" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>81</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="BS12" s="22"/>
       <c r="BU12" s="24"/>
     </row>
-    <row r="13" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>81</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="BS13" s="22"/>
       <c r="BU13" s="24"/>
     </row>
-    <row r="14" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>81</v>
       </c>
@@ -2955,7 +2955,7 @@
       <c r="BS14" s="22"/>
       <c r="BU14" s="24"/>
     </row>
-    <row r="15" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>81</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="BS15" s="22"/>
       <c r="BU15" s="24"/>
     </row>
-    <row r="16" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>81</v>
       </c>
@@ -3175,7 +3175,7 @@
       <c r="BS16" s="22"/>
       <c r="BU16" s="24"/>
     </row>
-    <row r="17" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>81</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="BS17" s="22"/>
       <c r="BU17" s="24"/>
     </row>
-    <row r="18" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>81</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="BS18" s="22"/>
       <c r="BU18" s="24"/>
     </row>
-    <row r="19" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>81</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="BS19" s="22"/>
       <c r="BU19" s="24"/>
     </row>
-    <row r="20" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>81</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="BS20" s="22"/>
       <c r="BU20" s="24"/>
     </row>
-    <row r="21" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>81</v>
       </c>
@@ -3809,73 +3809,73 @@
       <c r="O22" s="7"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6">
-        <v>9109.6420557258243</v>
+        <v>10449.837492570965</v>
       </c>
       <c r="R22" s="6">
-        <v>9109.6420557258243</v>
+        <v>10431.672779357095</v>
       </c>
       <c r="S22" s="6">
-        <v>9109.6420557258243</v>
+        <v>10446.803383251159</v>
       </c>
       <c r="T22" s="6">
-        <v>9109.6420557258243</v>
+        <v>10436.902050927121</v>
       </c>
       <c r="U22" s="6">
-        <v>9443.0706186702519</v>
+        <v>10479.591747788802</v>
       </c>
       <c r="V22" s="6">
-        <v>9096.3746499009503</v>
+        <v>10392.028311066411</v>
       </c>
       <c r="W22" s="6">
-        <v>9096.3746499009503</v>
+        <v>8754.8671691263135</v>
       </c>
       <c r="X22" s="6">
-        <v>9427.623941192147</v>
+        <v>8840.2334041552531</v>
       </c>
       <c r="Y22" s="6">
-        <v>9770.4960146339108</v>
+        <v>8938.1438664977632</v>
       </c>
       <c r="Z22" s="6">
-        <v>9770.4960146339108</v>
+        <v>8950.4032044076648</v>
       </c>
       <c r="AA22" s="6">
-        <v>9770.4960146339108</v>
+        <v>8950.4032044076648</v>
       </c>
       <c r="AB22" s="6">
-        <v>9639.7397154400187</v>
+        <v>8896.7973427325778</v>
       </c>
       <c r="AC22" s="6">
-        <v>9306.3111524955893</v>
+        <v>8821.8654373827085</v>
       </c>
       <c r="AD22" s="6">
-        <v>9105.8181603982866</v>
+        <v>8768.328533158352</v>
       </c>
       <c r="AE22" s="6">
-        <v>9076.7612050218668</v>
+        <v>8775.1616402437303</v>
       </c>
       <c r="AF22" s="6">
-        <v>9076.7612050218668</v>
+        <v>8773.1863832278323</v>
       </c>
       <c r="AG22" s="6">
-        <v>9076.7612050218668</v>
+        <v>8730.6658375298011</v>
       </c>
       <c r="AH22" s="6">
-        <v>9076.7612050218668</v>
+        <v>8718.4064996198977</v>
       </c>
       <c r="AI22" s="6">
-        <v>9076.7612050218668</v>
+        <v>8718.4064996198977</v>
       </c>
       <c r="AJ22" s="6">
-        <v>9076.7612050218668</v>
+        <v>8718.4064996198977</v>
       </c>
       <c r="AK22" s="6">
-        <v>9076.7612050218668</v>
+        <v>8730.6658375298011</v>
       </c>
       <c r="AL22" s="6">
-        <v>9076.7612050218668</v>
+        <v>8742.9251754397028</v>
       </c>
       <c r="AM22" s="6">
-        <v>9076.7612050218668</v>
+        <v>8742.9251754397028</v>
       </c>
       <c r="AN22" s="6"/>
       <c r="AO22" s="6"/>
@@ -3911,7 +3911,7 @@
       <c r="BS22" s="22"/>
       <c r="BU22" s="24"/>
     </row>
-    <row r="23" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>81</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="BS23" s="22"/>
       <c r="BU23" s="24"/>
     </row>
-    <row r="24" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>81</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="BS24" s="22"/>
       <c r="BU24" s="24"/>
     </row>
-    <row r="25" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>81</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="BS25" s="22"/>
       <c r="BU25" s="24"/>
     </row>
-    <row r="26" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
         <v>81</v>
       </c>
@@ -4441,7 +4441,7 @@
       <c r="BS26" s="22"/>
       <c r="BU26" s="24"/>
     </row>
-    <row r="27" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
         <v>81</v>
       </c>
@@ -4579,7 +4579,7 @@
       <c r="BS27" s="22"/>
       <c r="BU27" s="24"/>
     </row>
-    <row r="28" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
         <v>81</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="BS28" s="22"/>
       <c r="BU28" s="24"/>
     </row>
-    <row r="29" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
         <v>81</v>
       </c>
@@ -4807,7 +4807,7 @@
       <c r="BS29" s="22"/>
       <c r="BU29" s="24"/>
     </row>
-    <row r="30" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
         <v>81</v>
       </c>
@@ -4921,7 +4921,7 @@
       <c r="BS30" s="22"/>
       <c r="BU30" s="24"/>
     </row>
-    <row r="31" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
         <v>81</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="BS31" s="22"/>
       <c r="BU31" s="24"/>
     </row>
-    <row r="32" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
         <v>81</v>
       </c>
@@ -5185,7 +5185,7 @@
       <c r="BS32" s="22"/>
       <c r="BU32" s="24"/>
     </row>
-    <row r="33" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
         <v>81</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="BS33" s="22"/>
       <c r="BU33" s="24"/>
     </row>
-    <row r="34" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="12" t="s">
         <v>81</v>
       </c>
@@ -5465,7 +5465,7 @@
       <c r="BS34" s="22"/>
       <c r="BU34" s="24"/>
     </row>
-    <row r="35" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="12" t="s">
         <v>81</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="BS35" s="22"/>
       <c r="BU35" s="24"/>
     </row>
-    <row r="36" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>81</v>
       </c>
@@ -5719,7 +5719,7 @@
       <c r="BS36" s="22"/>
       <c r="BU36" s="24"/>
     </row>
-    <row r="37" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
         <v>81</v>
       </c>
@@ -5861,7 +5861,7 @@
       <c r="BS37" s="22"/>
       <c r="BU37" s="24"/>
     </row>
-    <row r="38" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="12" t="s">
         <v>81</v>
       </c>
@@ -6001,7 +6001,7 @@
       <c r="BS38" s="22"/>
       <c r="BU38" s="24"/>
     </row>
-    <row r="39" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
@@ -6137,7 +6137,7 @@
       <c r="BS39" s="22"/>
       <c r="BU39" s="24"/>
     </row>
-    <row r="40" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="12" t="s">
         <v>81</v>
       </c>
@@ -6303,7 +6303,7 @@
       <c r="BS40" s="22"/>
       <c r="BU40" s="24"/>
     </row>
-    <row r="41" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
         <v>81</v>
       </c>
@@ -6469,7 +6469,7 @@
       <c r="BS41" s="22"/>
       <c r="BU41" s="24"/>
     </row>
-    <row r="42" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
         <v>81</v>
       </c>
@@ -6631,7 +6631,7 @@
       <c r="BS42" s="22"/>
       <c r="BU42" s="24"/>
     </row>
-    <row r="43" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="12" t="s">
         <v>81</v>
       </c>
@@ -6785,7 +6785,7 @@
       <c r="BS43" s="22"/>
       <c r="BU43" s="24"/>
     </row>
-    <row r="44" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
         <v>81</v>
       </c>
@@ -6951,7 +6951,7 @@
       <c r="BS44" s="22"/>
       <c r="BU44" s="24"/>
     </row>
-    <row r="45" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="12" t="s">
         <v>81</v>
       </c>
@@ -7117,7 +7117,7 @@
       <c r="BS45" s="22"/>
       <c r="BU45" s="24"/>
     </row>
-    <row r="46" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="12" t="s">
         <v>81</v>
       </c>
@@ -7277,7 +7277,7 @@
       <c r="BS46" s="22"/>
       <c r="BU46" s="24"/>
     </row>
-    <row r="47" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="12" t="s">
         <v>81</v>
       </c>
@@ -7443,7 +7443,7 @@
       <c r="BS47" s="22"/>
       <c r="BU47" s="24"/>
     </row>
-    <row r="48" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12" t="s">
         <v>81</v>
       </c>
@@ -7603,7 +7603,7 @@
       <c r="BS48" s="22"/>
       <c r="BU48" s="24"/>
     </row>
-    <row r="49" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="12" t="s">
         <v>81</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="BS49" s="22"/>
       <c r="BU49" s="24"/>
     </row>
-    <row r="50" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="12" t="s">
         <v>81</v>
       </c>
@@ -7903,7 +7903,7 @@
       <c r="BS50" s="22"/>
       <c r="BU50" s="24"/>
     </row>
-    <row r="51" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="12" t="s">
         <v>81</v>
       </c>
@@ -7989,7 +7989,7 @@
       <c r="BS51" s="22"/>
       <c r="BU51" s="24"/>
     </row>
-    <row r="52" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="12" t="s">
         <v>81</v>
       </c>
@@ -8075,7 +8075,7 @@
       <c r="BS52" s="22"/>
       <c r="BU52" s="24"/>
     </row>
-    <row r="53" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="12" t="s">
         <v>81</v>
       </c>
@@ -8223,7 +8223,7 @@
       <c r="BS53" s="22"/>
       <c r="BU53" s="24"/>
     </row>
-    <row r="54" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="12" t="s">
         <v>81</v>
       </c>
@@ -8381,7 +8381,7 @@
       <c r="BS54" s="22"/>
       <c r="BU54" s="24"/>
     </row>
-    <row r="55" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="12" t="s">
         <v>81</v>
       </c>
@@ -8567,7 +8567,7 @@
       <c r="BS55" s="22"/>
       <c r="BU55" s="24"/>
     </row>
-    <row r="56" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="12" t="s">
         <v>81</v>
       </c>
@@ -8757,7 +8757,7 @@
       <c r="BS56" s="22"/>
       <c r="BU56" s="24"/>
     </row>
-    <row r="57" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="12" t="s">
         <v>81</v>
       </c>
@@ -8895,7 +8895,7 @@
       <c r="BS57" s="22"/>
       <c r="BU57" s="24"/>
     </row>
-    <row r="58" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="12" t="s">
         <v>81</v>
       </c>
@@ -9031,7 +9031,7 @@
       <c r="BS58" s="22"/>
       <c r="BU58" s="24"/>
     </row>
-    <row r="59" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12" t="s">
         <v>81</v>
       </c>
@@ -9135,7 +9135,7 @@
       <c r="BS59" s="22"/>
       <c r="BU59" s="24"/>
     </row>
-    <row r="60" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
         <v>81</v>
       </c>
@@ -9219,7 +9219,7 @@
       <c r="BS60" s="22"/>
       <c r="BU60" s="24"/>
     </row>
-    <row r="61" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="12" t="s">
         <v>81</v>
       </c>
@@ -9306,7 +9306,7 @@
       <c r="BR61" s="22"/>
       <c r="BS61" s="22"/>
     </row>
-    <row r="62" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="12" t="s">
         <v>81</v>
       </c>
@@ -9435,7 +9435,7 @@
       <c r="BR62" s="22"/>
       <c r="BS62" s="22"/>
     </row>
-    <row r="63" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="12" t="s">
         <v>81</v>
       </c>
@@ -9564,7 +9564,7 @@
       <c r="BR63" s="22"/>
       <c r="BS63" s="22"/>
     </row>
-    <row r="64" spans="1:73" ht="15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:73" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="12" t="s">
         <v>81</v>
       </c>
@@ -9771,7 +9771,7 @@
       <c r="BR64" s="22"/>
       <c r="BS64" s="22"/>
     </row>
-    <row r="65" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="12" t="s">
         <v>81</v>
       </c>
@@ -9910,7 +9910,7 @@
       <c r="BR65" s="22"/>
       <c r="BS65" s="22"/>
     </row>
-    <row r="66" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="12" t="s">
         <v>81</v>
       </c>
@@ -10043,7 +10043,7 @@
       <c r="BR66" s="22"/>
       <c r="BS66" s="22"/>
     </row>
-    <row r="67" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="12" t="s">
         <v>81</v>
       </c>
@@ -10176,7 +10176,7 @@
       <c r="BR67" s="22"/>
       <c r="BS67" s="22"/>
     </row>
-    <row r="68" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="12" t="s">
         <v>81</v>
       </c>
@@ -10383,7 +10383,7 @@
       <c r="BR68" s="22"/>
       <c r="BS68" s="22"/>
     </row>
-    <row r="69" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="12" t="s">
         <v>81</v>
       </c>
@@ -10516,7 +10516,7 @@
       <c r="BR69" s="22"/>
       <c r="BS69" s="22"/>
     </row>
-    <row r="70" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="12" t="s">
         <v>81</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="BR70" s="22"/>
       <c r="BS70" s="22"/>
     </row>
-    <row r="71" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="12" t="s">
         <v>81</v>
       </c>
@@ -10802,7 +10802,7 @@
       <c r="BR71" s="22"/>
       <c r="BS71" s="22"/>
     </row>
-    <row r="72" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="12" t="s">
         <v>81</v>
       </c>
@@ -11009,7 +11009,7 @@
       <c r="BR72" s="22"/>
       <c r="BS72" s="22"/>
     </row>
-    <row r="73" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="12" t="s">
         <v>81</v>
       </c>
@@ -11142,7 +11142,7 @@
       <c r="BR73" s="22"/>
       <c r="BS73" s="22"/>
     </row>
-    <row r="74" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="12" t="s">
         <v>81</v>
       </c>
@@ -11281,7 +11281,7 @@
       <c r="BR74" s="22"/>
       <c r="BS74" s="22"/>
     </row>
-    <row r="75" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="12" t="s">
         <v>81</v>
       </c>
@@ -11420,7 +11420,7 @@
       <c r="BR75" s="22"/>
       <c r="BS75" s="22"/>
     </row>
-    <row r="76" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="12" t="s">
         <v>81</v>
       </c>
@@ -11627,7 +11627,7 @@
       <c r="BR76" s="22"/>
       <c r="BS76" s="22"/>
     </row>
-    <row r="77" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="12" t="s">
         <v>81</v>
       </c>
@@ -11776,7 +11776,7 @@
       <c r="BR77" s="22"/>
       <c r="BS77" s="22"/>
     </row>
-    <row r="78" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="12" t="s">
         <v>81</v>
       </c>
@@ -11941,7 +11941,7 @@
       <c r="BR78" s="22"/>
       <c r="BS78" s="22"/>
     </row>
-    <row r="79" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="12" t="s">
         <v>81</v>
       </c>
@@ -12106,7 +12106,7 @@
       <c r="BR79" s="22"/>
       <c r="BS79" s="22"/>
     </row>
-    <row r="80" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="12" t="s">
         <v>81</v>
       </c>
@@ -12313,7 +12313,7 @@
       <c r="BR80" s="22"/>
       <c r="BS80" s="22"/>
     </row>
-    <row r="81" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="12" t="s">
         <v>81</v>
       </c>
@@ -12462,7 +12462,7 @@
       <c r="BR81" s="22"/>
       <c r="BS81" s="22"/>
     </row>
-    <row r="82" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="12" t="s">
         <v>81</v>
       </c>
@@ -12623,7 +12623,7 @@
       <c r="BR82" s="22"/>
       <c r="BS82" s="22"/>
     </row>
-    <row r="83" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="12" t="s">
         <v>81</v>
       </c>
@@ -12784,7 +12784,7 @@
       <c r="BR83" s="22"/>
       <c r="BS83" s="22"/>
     </row>
-    <row r="84" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="12" t="s">
         <v>81</v>
       </c>
@@ -12991,7 +12991,7 @@
       <c r="BR84" s="22"/>
       <c r="BS84" s="22"/>
     </row>
-    <row r="85" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="12" t="s">
         <v>81</v>
       </c>
@@ -13124,7 +13124,7 @@
       <c r="BR85" s="22"/>
       <c r="BS85" s="22"/>
     </row>
-    <row r="86" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="12" t="s">
         <v>81</v>
       </c>
@@ -13273,7 +13273,7 @@
       <c r="BR86" s="22"/>
       <c r="BS86" s="22"/>
     </row>
-    <row r="87" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="12" t="s">
         <v>81</v>
       </c>
@@ -13422,7 +13422,7 @@
       <c r="BR87" s="22"/>
       <c r="BS87" s="22"/>
     </row>
-    <row r="88" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="12" t="s">
         <v>81</v>
       </c>
@@ -13629,7 +13629,7 @@
       <c r="BR88" s="22"/>
       <c r="BS88" s="22"/>
     </row>
-    <row r="89" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="12" t="s">
         <v>81</v>
       </c>
@@ -13752,7 +13752,7 @@
       <c r="BR89" s="22"/>
       <c r="BS89" s="22"/>
     </row>
-    <row r="90" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="12" t="s">
         <v>81</v>
       </c>
@@ -13895,7 +13895,7 @@
       <c r="BR90" s="22"/>
       <c r="BS90" s="22"/>
     </row>
-    <row r="91" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="12" t="s">
         <v>81</v>
       </c>
@@ -14046,7 +14046,7 @@
       <c r="BR91" s="22"/>
       <c r="BS91" s="22"/>
     </row>
-    <row r="92" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="12" t="s">
         <v>81</v>
       </c>
@@ -14253,7 +14253,7 @@
       <c r="BR92" s="22"/>
       <c r="BS92" s="22"/>
     </row>
-    <row r="93" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="12" t="s">
         <v>81</v>
       </c>
@@ -14336,7 +14336,7 @@
       <c r="BR93" s="22"/>
       <c r="BS93" s="22"/>
     </row>
-    <row r="94" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="12" t="s">
         <v>81</v>
       </c>
@@ -14495,7 +14495,7 @@
       <c r="BR94" s="22"/>
       <c r="BS94" s="22"/>
     </row>
-    <row r="95" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="12" t="s">
         <v>81</v>
       </c>
@@ -14654,7 +14654,7 @@
       <c r="BR95" s="22"/>
       <c r="BS95" s="22"/>
     </row>
-    <row r="96" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="12" t="s">
         <v>81</v>
       </c>
@@ -14861,7 +14861,7 @@
       <c r="BR96" s="22"/>
       <c r="BS96" s="22"/>
     </row>
-    <row r="97" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="12" t="s">
         <v>81</v>
       </c>
@@ -14998,7 +14998,7 @@
       <c r="BR97" s="22"/>
       <c r="BS97" s="22"/>
     </row>
-    <row r="98" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="12" t="s">
         <v>81</v>
       </c>
@@ -15163,7 +15163,7 @@
       <c r="BR98" s="22"/>
       <c r="BS98" s="22"/>
     </row>
-    <row r="99" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="12" t="s">
         <v>81</v>
       </c>
@@ -15328,7 +15328,7 @@
       <c r="BR99" s="22"/>
       <c r="BS99" s="22"/>
     </row>
-    <row r="100" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="12" t="s">
         <v>81</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="BR100" s="22"/>
       <c r="BS100" s="22"/>
     </row>
-    <row r="101" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="12" t="s">
         <v>81</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="BR101" s="22"/>
       <c r="BS101" s="22"/>
     </row>
-    <row r="102" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="12" t="s">
         <v>81</v>
       </c>
@@ -15703,7 +15703,7 @@
       <c r="BR102" s="22"/>
       <c r="BS102" s="22"/>
     </row>
-    <row r="103" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="12" t="s">
         <v>81</v>
       </c>
@@ -15784,7 +15784,7 @@
       <c r="BR103" s="22"/>
       <c r="BS103" s="22"/>
     </row>
-    <row r="104" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="12" t="s">
         <v>81</v>
       </c>
@@ -15991,7 +15991,7 @@
       <c r="BR104" s="22"/>
       <c r="BS104" s="22"/>
     </row>
-    <row r="105" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="12" t="s">
         <v>81</v>
       </c>
@@ -16078,7 +16078,7 @@
       <c r="BR105" s="22"/>
       <c r="BS105" s="22"/>
     </row>
-    <row r="106" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="12" t="s">
         <v>81</v>
       </c>
@@ -16159,7 +16159,7 @@
       <c r="BR106" s="22"/>
       <c r="BS106" s="22"/>
     </row>
-    <row r="107" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" s="12" t="s">
         <v>81</v>
       </c>
@@ -16240,7 +16240,7 @@
       <c r="BR107" s="22"/>
       <c r="BS107" s="22"/>
     </row>
-    <row r="108" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" s="12" t="s">
         <v>81</v>
       </c>
@@ -16447,7 +16447,7 @@
       <c r="BR108" s="22"/>
       <c r="BS108" s="22"/>
     </row>
-    <row r="109" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" s="12" t="s">
         <v>81</v>
       </c>
@@ -16532,7 +16532,7 @@
       <c r="BR109" s="22"/>
       <c r="BS109" s="22"/>
     </row>
-    <row r="110" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="12" t="s">
         <v>81</v>
       </c>
@@ -16613,7 +16613,7 @@
       <c r="BR110" s="22"/>
       <c r="BS110" s="22"/>
     </row>
-    <row r="111" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" s="12" t="s">
         <v>81</v>
       </c>
@@ -16694,7 +16694,7 @@
       <c r="BR111" s="22"/>
       <c r="BS111" s="22"/>
     </row>
-    <row r="112" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" s="12" t="s">
         <v>81</v>
       </c>
@@ -16901,7 +16901,7 @@
       <c r="BR112" s="22"/>
       <c r="BS112" s="22"/>
     </row>
-    <row r="113" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" s="12" t="s">
         <v>81</v>
       </c>
@@ -16988,7 +16988,7 @@
       <c r="BR113" s="22"/>
       <c r="BS113" s="22"/>
     </row>
-    <row r="114" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" s="12" t="s">
         <v>81</v>
       </c>
@@ -17069,7 +17069,7 @@
       <c r="BR114" s="22"/>
       <c r="BS114" s="22"/>
     </row>
-    <row r="115" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" s="12" t="s">
         <v>81</v>
       </c>
@@ -17150,7 +17150,7 @@
       <c r="BR115" s="22"/>
       <c r="BS115" s="22"/>
     </row>
-    <row r="116" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" s="12" t="s">
         <v>81</v>
       </c>
@@ -17357,7 +17357,7 @@
       <c r="BR116" s="22"/>
       <c r="BS116" s="22"/>
     </row>
-    <row r="117" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" s="12" t="s">
         <v>81</v>
       </c>
@@ -17444,7 +17444,7 @@
       <c r="BR117" s="22"/>
       <c r="BS117" s="22"/>
     </row>
-    <row r="118" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="12" t="s">
         <v>81</v>
       </c>
@@ -17525,7 +17525,7 @@
       <c r="BR118" s="22"/>
       <c r="BS118" s="22"/>
     </row>
-    <row r="119" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="12" t="s">
         <v>81</v>
       </c>
@@ -17606,7 +17606,7 @@
       <c r="BR119" s="22"/>
       <c r="BS119" s="22"/>
     </row>
-    <row r="120" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="12" t="s">
         <v>81</v>
       </c>
@@ -17813,7 +17813,7 @@
       <c r="BR120" s="22"/>
       <c r="BS120" s="22"/>
     </row>
-    <row r="121" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="12" t="s">
         <v>81</v>
       </c>
@@ -17898,7 +17898,7 @@
       <c r="BR121" s="22"/>
       <c r="BS121" s="22"/>
     </row>
-    <row r="122" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" s="12" t="s">
         <v>81</v>
       </c>
@@ -17979,7 +17979,7 @@
       <c r="BR122" s="22"/>
       <c r="BS122" s="22"/>
     </row>
-    <row r="123" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" s="12" t="s">
         <v>81</v>
       </c>
@@ -18060,7 +18060,7 @@
       <c r="BR123" s="22"/>
       <c r="BS123" s="22"/>
     </row>
-    <row r="124" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" s="12" t="s">
         <v>81</v>
       </c>
@@ -18267,7 +18267,7 @@
       <c r="BR124" s="22"/>
       <c r="BS124" s="22"/>
     </row>
-    <row r="125" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" s="12" t="s">
         <v>81</v>
       </c>
@@ -18354,7 +18354,7 @@
       <c r="BR125" s="22"/>
       <c r="BS125" s="22"/>
     </row>
-    <row r="126" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="12" t="s">
         <v>81</v>
       </c>
@@ -18435,7 +18435,7 @@
       <c r="BR126" s="22"/>
       <c r="BS126" s="22"/>
     </row>
-    <row r="127" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" s="12" t="s">
         <v>81</v>
       </c>
@@ -18516,7 +18516,7 @@
       <c r="BR127" s="22"/>
       <c r="BS127" s="22"/>
     </row>
-    <row r="128" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" s="12" t="s">
         <v>81</v>
       </c>
@@ -18723,7 +18723,7 @@
       <c r="BR128" s="22"/>
       <c r="BS128" s="22"/>
     </row>
-    <row r="129" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" s="12" t="s">
         <v>81</v>
       </c>
@@ -18810,7 +18810,7 @@
       <c r="BR129" s="22"/>
       <c r="BS129" s="22"/>
     </row>
-    <row r="130" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" s="12" t="s">
         <v>81</v>
       </c>
@@ -18891,7 +18891,7 @@
       <c r="BR130" s="22"/>
       <c r="BS130" s="22"/>
     </row>
-    <row r="131" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" s="12" t="s">
         <v>81</v>
       </c>
@@ -18972,7 +18972,7 @@
       <c r="BR131" s="22"/>
       <c r="BS131" s="22"/>
     </row>
-    <row r="132" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" s="12" t="s">
         <v>81</v>
       </c>
@@ -19179,7 +19179,7 @@
       <c r="BR132" s="22"/>
       <c r="BS132" s="22"/>
     </row>
-    <row r="133" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="12" t="s">
         <v>81</v>
       </c>
@@ -19266,7 +19266,7 @@
       <c r="BR133" s="22"/>
       <c r="BS133" s="22"/>
     </row>
-    <row r="134" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="12" t="s">
         <v>81</v>
       </c>
@@ -19347,7 +19347,7 @@
       <c r="BR134" s="22"/>
       <c r="BS134" s="22"/>
     </row>
-    <row r="135" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" s="12" t="s">
         <v>81</v>
       </c>
@@ -19428,7 +19428,7 @@
       <c r="BR135" s="22"/>
       <c r="BS135" s="22"/>
     </row>
-    <row r="136" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136" s="12" t="s">
         <v>81</v>
       </c>
@@ -19635,7 +19635,7 @@
       <c r="BR136" s="22"/>
       <c r="BS136" s="22"/>
     </row>
-    <row r="137" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" s="12" t="s">
         <v>81</v>
       </c>
@@ -19722,7 +19722,7 @@
       <c r="BR137" s="22"/>
       <c r="BS137" s="22"/>
     </row>
-    <row r="138" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" s="12" t="s">
         <v>81</v>
       </c>
@@ -19803,7 +19803,7 @@
       <c r="BR138" s="22"/>
       <c r="BS138" s="22"/>
     </row>
-    <row r="139" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" s="12" t="s">
         <v>81</v>
       </c>
@@ -19884,7 +19884,7 @@
       <c r="BR139" s="22"/>
       <c r="BS139" s="22"/>
     </row>
-    <row r="140" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" s="12" t="s">
         <v>81</v>
       </c>
@@ -20091,7 +20091,7 @@
       <c r="BR140" s="22"/>
       <c r="BS140" s="22"/>
     </row>
-    <row r="141" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" s="12" t="s">
         <v>81</v>
       </c>
@@ -20178,7 +20178,7 @@
       <c r="BR141" s="22"/>
       <c r="BS141" s="22"/>
     </row>
-    <row r="142" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" s="12" t="s">
         <v>81</v>
       </c>
@@ -20259,7 +20259,7 @@
       <c r="BR142" s="22"/>
       <c r="BS142" s="22"/>
     </row>
-    <row r="143" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" s="12" t="s">
         <v>81</v>
       </c>
@@ -20340,7 +20340,7 @@
       <c r="BR143" s="22"/>
       <c r="BS143" s="22"/>
     </row>
-    <row r="144" spans="1:71" ht="15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:71" ht="15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" s="12" t="s">
         <v>81</v>
       </c>
@@ -20547,7 +20547,7 @@
       <c r="BR144" s="22"/>
       <c r="BS144" s="22"/>
     </row>
-    <row r="145" spans="1:71" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:71" ht="15.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="19" t="s">
         <v>81</v>
       </c>
@@ -20646,2555 +20646,2564 @@
       <c r="BR145" s="22"/>
       <c r="BS145" s="22"/>
     </row>
-    <row r="146" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="N146" s="4"/>
     </row>
-    <row r="147" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="N147" s="4"/>
     </row>
-    <row r="148" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="N148" s="4"/>
     </row>
-    <row r="149" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="N149" s="4"/>
     </row>
-    <row r="150" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="N150" s="4"/>
     </row>
-    <row r="151" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="N151" s="4"/>
     </row>
-    <row r="152" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="N152" s="4"/>
     </row>
-    <row r="153" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="N153" s="4"/>
     </row>
-    <row r="154" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="N154" s="4"/>
     </row>
-    <row r="155" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="N156" s="4"/>
     </row>
-    <row r="157" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="N157" s="4"/>
     </row>
-    <row r="158" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="N158" s="4"/>
     </row>
-    <row r="159" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="N159" s="4"/>
     </row>
-    <row r="160" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:71" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="N160" s="4"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="N161" s="4"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="N162" s="4"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="N163" s="4"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="N164" s="4"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="N165" s="4"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="N166" s="4"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="N167" s="4"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="N168" s="4"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="N169" s="4"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="N170" s="4"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="N171" s="4"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="N172" s="4"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="N173" s="4"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="N174" s="4"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="N175" s="4"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="N176" s="4"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="N177" s="4"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="N178" s="4"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="N179" s="4"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="N180" s="4"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="N181" s="4"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="N182" s="4"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="N183" s="4"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="N184" s="4"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="N185" s="4"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="N186" s="4"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="N187" s="4"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="N188" s="4"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="N189" s="4"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="N190" s="4"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="N191" s="4"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="N192" s="4"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="N193" s="4"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="N194" s="4"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="N195" s="4"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="N196" s="4"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="N197" s="4"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="N198" s="4"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="N199" s="4"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="N200" s="4"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="N201" s="4"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="N202" s="4"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="N203" s="4"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="N204" s="4"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="N205" s="4"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="N206" s="4"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="N207" s="4"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="N208" s="4"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="N209" s="4"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="N210" s="4"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="N211" s="4"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="N212" s="4"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="N213" s="4"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="N214" s="4"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="N215" s="4"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="N216" s="4"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="N217" s="4"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="N218" s="4"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="N219" s="4"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="N220" s="4"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="N221" s="4"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="N222" s="4"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="N223" s="4"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="N224" s="4"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="N225" s="4"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="N226" s="4"/>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="N227" s="4"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="N228" s="4"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="N229" s="4"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="N230" s="4"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="N231" s="4"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="N232" s="4"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="N233" s="4"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="N234" s="4"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="N235" s="4"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="N236" s="4"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="N237" s="4"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="N238" s="4"/>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="N239" s="4"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="N240" s="4"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="N241" s="4"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="N242" s="4"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="N243" s="4"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="N244" s="4"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="N245" s="4"/>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="N246" s="4"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="N247" s="4"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="N248" s="4"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="N249" s="4"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="N250" s="4"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="N251" s="4"/>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="N252" s="4"/>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="N253" s="4"/>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="N254" s="4"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="N255" s="4"/>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="N256" s="4"/>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="N257" s="4"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="N258" s="4"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="N259" s="4"/>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="N260" s="4"/>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="N261" s="4"/>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="N262" s="4"/>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="N263" s="4"/>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="N264" s="4"/>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="N265" s="4"/>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="N266" s="4"/>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="N267" s="4"/>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="N268" s="4"/>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="N269" s="4"/>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="N270" s="4"/>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="N271" s="4"/>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="N272" s="4"/>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="N273" s="4"/>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="N274" s="4"/>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="N275" s="4"/>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="N276" s="4"/>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="N277" s="4"/>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="N278" s="4"/>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="N279" s="4"/>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="N280" s="4"/>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="N281" s="4"/>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="N282" s="4"/>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="N283" s="4"/>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="N284" s="4"/>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="N285" s="4"/>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="N286" s="4"/>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="N287" s="4"/>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="N288" s="4"/>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="N289" s="4"/>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="N290" s="4"/>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="N291" s="4"/>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="N292" s="4"/>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="N293" s="4"/>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="N294" s="4"/>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="N295" s="4"/>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="N296" s="4"/>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="N297" s="4"/>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="N298" s="4"/>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="N299" s="4"/>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="N300" s="4"/>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="N301" s="4"/>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="N302" s="4"/>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="N303" s="4"/>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="N304" s="4"/>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="N305" s="4"/>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="N306" s="4"/>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="N307" s="4"/>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="N308" s="4"/>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="N309" s="4"/>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="N310" s="4"/>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="N311" s="4"/>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="N312" s="4"/>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="N313" s="4"/>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="N314" s="4"/>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="N315" s="4"/>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="N316" s="4"/>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="N317" s="4"/>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="N318" s="4"/>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="N319" s="4"/>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="N320" s="4"/>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="N321" s="4"/>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="N322" s="4"/>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="N323" s="4"/>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="N324" s="4"/>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="N325" s="4"/>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="N326" s="4"/>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="N327" s="4"/>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="N328" s="4"/>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="N329" s="4"/>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="N330" s="4"/>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="N331" s="4"/>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="N332" s="4"/>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="N333" s="4"/>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="1"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="N334" s="4"/>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="N335" s="4"/>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="N336" s="4"/>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="1"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="N337" s="4"/>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="1"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="N338" s="4"/>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="N339" s="4"/>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="N340" s="4"/>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="1"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="N341" s="4"/>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="N342" s="4"/>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="1"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="N343" s="4"/>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="N344" s="4"/>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="N345" s="4"/>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="N346" s="4"/>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="1"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="N347" s="4"/>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="1"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="N348" s="4"/>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="1"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="N349" s="4"/>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="N350" s="4"/>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="N351" s="4"/>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="1"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="N352" s="4"/>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="1"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="N353" s="4"/>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="1"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="N354" s="4"/>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="1"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="N355" s="4"/>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="1"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="N356" s="4"/>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="1"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="N357" s="4"/>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="1"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="N358" s="4"/>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="N359" s="4"/>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="1"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="N360" s="4"/>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="1"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="N361" s="4"/>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="1"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="N362" s="4"/>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="N363" s="4"/>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="1"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="N364" s="4"/>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="1"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="N365" s="4"/>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="1"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="N366" s="4"/>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="1"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="N367" s="4"/>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="1"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="N368" s="4"/>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="1"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="N369" s="4"/>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="1"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="N370" s="4"/>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="N371" s="4"/>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="1"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="N372" s="4"/>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="1"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="N373" s="4"/>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="1"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="N374" s="4"/>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="N375" s="4"/>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="1"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="N376" s="4"/>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="N377" s="4"/>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="N378" s="4"/>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="1"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="N379" s="4"/>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="1"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="N380" s="4"/>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="N381" s="4"/>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="N382" s="4"/>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="1"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="N383" s="4"/>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="1"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="N384" s="4"/>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="1"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="N385" s="4"/>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="N386" s="4"/>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="1"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="N387" s="4"/>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="1"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="N388" s="4"/>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="N389" s="4"/>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="1"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="N390" s="4"/>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="1"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="N391" s="4"/>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="1"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="N392" s="4"/>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="1"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="N393" s="4"/>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="1"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="N394" s="4"/>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="1"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="N395" s="4"/>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="1"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="N396" s="4"/>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="1"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="N397" s="4"/>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="1"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="N398" s="4"/>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="1"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="N399" s="4"/>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="1"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="N400" s="4"/>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="1"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="N401" s="4"/>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="1"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="N402" s="4"/>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="1"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="N403" s="4"/>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="1"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="N404" s="4"/>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="1"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="N405" s="4"/>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="1"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="N406" s="4"/>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="1"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="N407" s="4"/>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="1"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="N408" s="4"/>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="1"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="N409" s="4"/>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="1"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="N410" s="4"/>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="1"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="N411" s="4"/>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="1"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="N412" s="4"/>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="1"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="N413" s="4"/>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="1"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="N414" s="4"/>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="1"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="N415" s="4"/>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="1"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="N416" s="4"/>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="1"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="N417" s="4"/>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="1"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="N418" s="4"/>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="1"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="N419" s="4"/>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="1"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="N420" s="4"/>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="1"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="N421" s="4"/>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="1"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="N422" s="4"/>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="1"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="N423" s="4"/>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="1"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="N424" s="4"/>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="1"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="N425" s="4"/>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="1"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="N426" s="4"/>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="1"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="N427" s="4"/>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="1"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="N428" s="4"/>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="1"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="N429" s="4"/>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="1"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="N430" s="4"/>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="1"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="N431" s="4"/>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="1"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="N432" s="4"/>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="1"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="N433" s="4"/>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="1"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="N434" s="4"/>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="1"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="N435" s="4"/>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="1"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="N436" s="4"/>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="1"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="N437" s="4"/>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="1"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="N438" s="4"/>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="1"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="N439" s="4"/>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="N440" s="4"/>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="N441" s="4"/>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="N442" s="4"/>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="1"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="N443" s="4"/>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="1"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="N444" s="4"/>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="N445" s="4"/>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="1"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="N446" s="4"/>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="1"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="N447" s="4"/>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="N448" s="4"/>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="1"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="N449" s="4"/>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="1"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="N450" s="4"/>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="N451" s="4"/>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="1"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="N452" s="4"/>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="1"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="N453" s="4"/>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="N454" s="4"/>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="N455" s="4"/>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="1"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="N456" s="4"/>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="1"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="N457" s="4"/>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="1"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="N458" s="4"/>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="1"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="N459" s="4"/>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="1"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="N460" s="4"/>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="1"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="N461" s="4"/>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="1"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="N462" s="4"/>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="1"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="N463" s="4"/>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="1"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="N464" s="4"/>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="1"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="N465" s="4"/>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="1"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="N466" s="4"/>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="1"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="N467" s="4"/>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="1"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="N468" s="4"/>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="1"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="N469" s="4"/>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="1"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="N470" s="4"/>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="1"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="N471" s="4"/>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="1"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="N472" s="4"/>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="1"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="N473" s="4"/>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="1"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="N474" s="4"/>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="1"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="N475" s="4"/>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="1"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="N476" s="4"/>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="1"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="N477" s="4"/>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="1"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
       <c r="N478" s="4"/>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="1"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
       <c r="N479" s="4"/>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="1"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
       <c r="N480" s="4"/>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="1"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
       <c r="N481" s="4"/>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="1"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
       <c r="N482" s="4"/>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="1"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
       <c r="N483" s="4"/>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="1"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
       <c r="N484" s="4"/>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="1"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
       <c r="N485" s="4"/>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="1"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
       <c r="N486" s="4"/>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="1"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
       <c r="N487" s="4"/>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="1"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
       <c r="N488" s="4"/>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="1"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
       <c r="N489" s="4"/>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="1"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
       <c r="N490" s="4"/>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="1"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
       <c r="N491" s="4"/>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="1"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
       <c r="N492" s="4"/>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="1"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
       <c r="N493" s="4"/>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="1"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
       <c r="N494" s="4"/>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" s="1"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
       <c r="N495" s="4"/>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" s="1"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
       <c r="N496" s="4"/>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" s="1"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
       <c r="N497" s="4"/>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" s="1"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
       <c r="N498" s="4"/>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" s="1"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
       <c r="N499" s="4"/>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" s="1"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
       <c r="N500" s="4"/>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" s="1"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
       <c r="N501" s="4"/>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
       <c r="N502" s="4"/>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" s="1"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
       <c r="N503" s="4"/>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="1"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
       <c r="N504" s="4"/>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" s="1"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
       <c r="N505" s="4"/>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" s="1"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
       <c r="N506" s="4"/>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" s="1"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
       <c r="N507" s="4"/>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" s="1"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
       <c r="N508" s="4"/>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="1"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
       <c r="N509" s="4"/>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" s="1"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
       <c r="N510" s="4"/>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="1"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
       <c r="N511" s="4"/>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="1"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
       <c r="N512" s="4"/>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="1"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
       <c r="N513" s="4"/>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="1"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
       <c r="N514" s="4"/>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="1"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
       <c r="N515" s="4"/>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="1"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
       <c r="N516" s="4"/>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="1"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
       <c r="N517" s="4"/>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="1"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
       <c r="N518" s="4"/>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="1"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
       <c r="N519" s="4"/>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="1"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
       <c r="N520" s="4"/>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
       <c r="N521" s="4"/>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
       <c r="N522" s="4"/>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="1"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
       <c r="N523" s="4"/>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="1"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
       <c r="N524" s="4"/>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="1"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
       <c r="N525" s="4"/>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" s="1"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
       <c r="N526" s="4"/>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" s="1"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
       <c r="N527" s="4"/>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="1"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
       <c r="N528" s="4"/>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="1"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
       <c r="N529" s="4"/>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="1"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
       <c r="N530" s="4"/>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="1"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
       <c r="N531" s="4"/>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="1"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
       <c r="N532" s="4"/>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="1"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
       <c r="N533" s="4"/>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="1"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
       <c r="N534" s="4"/>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="1"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
       <c r="N535" s="4"/>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="1"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
       <c r="N536" s="4"/>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="1"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
       <c r="N537" s="4"/>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="1"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
       <c r="N538" s="4"/>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="1"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
       <c r="N539" s="4"/>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="1"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
       <c r="N540" s="4"/>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="1"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
       <c r="N541" s="4"/>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="1"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
       <c r="N542" s="4"/>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="1"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
       <c r="N543" s="4"/>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="1"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
       <c r="N544" s="4"/>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="1"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
       <c r="N545" s="4"/>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="1"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
       <c r="N546" s="4"/>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="1"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
       <c r="N547" s="4"/>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="1"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
       <c r="N548" s="4"/>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="1"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
       <c r="N549" s="4"/>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="1"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
       <c r="N550" s="4"/>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="1"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
       <c r="N551" s="4"/>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="1"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
       <c r="N552" s="4"/>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" s="1"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
       <c r="N553" s="4"/>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" s="1"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
       <c r="N554" s="4"/>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" s="1"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
       <c r="N555" s="4"/>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="1"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
       <c r="N556" s="4"/>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="1"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
       <c r="N557" s="4"/>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="1"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
       <c r="N558" s="4"/>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="1"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
       <c r="N559" s="4"/>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="1"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
       <c r="N560" s="4"/>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:59" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="1"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
       <c r="N561" s="4"/>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:59" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="1"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
       <c r="N562" s="4"/>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:59" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="1"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
       <c r="N563" s="4"/>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:59" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="1"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
       <c r="N564" s="4"/>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:59" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="1"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
       <c r="N565" s="4"/>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:59" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="1"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
       <c r="N566" s="4"/>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:59" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="1"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
       <c r="N567" s="4"/>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:59" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="1"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
       <c r="N568" s="4"/>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:59" x14ac:dyDescent="0.35">
       <c r="N571" s="5"/>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:59" x14ac:dyDescent="0.35">
       <c r="O574" s="22"/>
+    </row>
+    <row r="576" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="BG576" s="22"/>
     </row>
     <row r="579" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G579" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D568" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D568" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="AYGM-SN-003"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
